--- a/00_Document/03_Testing/02_Frontend/01_テスト仕様書/スタッフ＿注文一覧画面＿テスト仕様書.xlsx
+++ b/00_Document/03_Testing/02_Frontend/01_テスト仕様書/スタッフ＿注文一覧画面＿テスト仕様書.xlsx
@@ -278,9 +278,6 @@
     <t>注文一覧</t>
   </si>
   <si>
-    <t>02_004_001</t>
-  </si>
-  <si>
     <t>１．スタッフの注文一覧を表示すること</t>
   </si>
   <si>
@@ -293,7 +290,10 @@
     <t>１．注文詳細dialogが閉じられること</t>
   </si>
   <si>
-    <t>02_004_002</t>
+    <t>02_003_001</t>
+  </si>
+  <si>
+    <t>02_003_002</t>
   </si>
 </sst>
 </file>
@@ -769,14 +769,17 @@
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -811,9 +814,6 @@
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1293,7 +1293,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1582,10 +1582,10 @@
       </c>
       <c r="BE1" s="51"/>
       <c r="BF1" s="52"/>
-      <c r="BG1" s="23"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="25"/>
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="26"/>
     </row>
     <row r="2" spans="1:65" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="39"/>
@@ -1646,10 +1646,10 @@
       <c r="BD2" s="63"/>
       <c r="BE2" s="54"/>
       <c r="BF2" s="55"/>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="27"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="28"/>
+      <c r="BG2" s="27"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="29"/>
     </row>
     <row r="3" spans="1:65" ht="8.15" customHeight="1">
       <c r="B3" s="8"/>
@@ -1657,235 +1657,235 @@
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="32" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="35" t="s">
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35" t="s">
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35" t="s">
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23"/>
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35" t="s">
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="23"/>
+      <c r="BA4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35" t="s">
+      <c r="BB4" s="23"/>
+      <c r="BC4" s="23"/>
+      <c r="BD4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35" t="s">
+      <c r="BE4" s="23"/>
+      <c r="BF4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35" t="s">
+      <c r="BG4" s="23"/>
+      <c r="BH4" s="23"/>
+      <c r="BI4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="BJ4" s="35"/>
+      <c r="BJ4" s="23"/>
     </row>
     <row r="5" spans="1:65" ht="72" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21" t="s">
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="21"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="21"/>
-      <c r="AV5" s="21"/>
-      <c r="AW5" s="21"/>
-      <c r="AX5" s="22"/>
-      <c r="AY5" s="22"/>
-      <c r="AZ5" s="22"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="21"/>
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="21"/>
       <c r="BA5" s="19"/>
       <c r="BB5" s="19"/>
       <c r="BC5" s="19"/>
-      <c r="BD5" s="20"/>
-      <c r="BE5" s="20"/>
-      <c r="BF5" s="20"/>
-      <c r="BG5" s="20"/>
-      <c r="BH5" s="20"/>
+      <c r="BD5" s="22"/>
+      <c r="BE5" s="22"/>
+      <c r="BF5" s="22"/>
+      <c r="BG5" s="22"/>
+      <c r="BH5" s="22"/>
       <c r="BI5" s="19"/>
       <c r="BJ5" s="19"/>
       <c r="BM5" s="3"/>
     </row>
     <row r="6" spans="1:65" ht="72" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="22"/>
-      <c r="AY6" s="22"/>
-      <c r="AZ6" s="22"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
       <c r="BA6" s="19"/>
       <c r="BB6" s="19"/>
       <c r="BC6" s="19"/>
-      <c r="BD6" s="20"/>
-      <c r="BE6" s="20"/>
-      <c r="BF6" s="20"/>
-      <c r="BG6" s="20"/>
-      <c r="BH6" s="20"/>
+      <c r="BD6" s="22"/>
+      <c r="BE6" s="22"/>
+      <c r="BF6" s="22"/>
+      <c r="BG6" s="22"/>
+      <c r="BH6" s="22"/>
       <c r="BI6" s="19"/>
       <c r="BJ6" s="19"/>
       <c r="BM6" s="3"/>
@@ -2596,29 +2596,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="AI6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BF6:BH6"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="T6:AH6"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="T5:AH5"/>
-    <mergeCell ref="AI5:AW5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
     <mergeCell ref="BG1:BJ2"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:I4"/>
@@ -2635,6 +2612,29 @@
     <mergeCell ref="AU1:AW2"/>
     <mergeCell ref="AX1:BC2"/>
     <mergeCell ref="BD1:BF2"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:AH5"/>
+    <mergeCell ref="AI5:AW5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="T6:AH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="AI6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BF6:BH6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2664,7 +2664,7 @@
   <sheetData>
     <row r="3" spans="2:66" ht="16.149999999999999" customHeight="1">
       <c r="B3" s="64" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
